--- a/data/trans_dic/P23_5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_5_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea</t>
+          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +710,87 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>5,77%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>5,8%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>4,55%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>4,67%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 10,74</t>
+          <t>2,27; 10,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 10,43</t>
+          <t>2,38; 10,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,42</t>
+          <t>1,01; 9,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 12,9</t>
+          <t>0,99; 9,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 8,16</t>
+          <t>2,16; 12,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 7,61</t>
+          <t>3,75; 18,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 6,86</t>
+          <t>1,24; 8,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 10,92</t>
+          <t>1,66; 7,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,71</t>
+          <t>1,19; 6,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,65</t>
+          <t>0,0; 4,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,28</t>
+          <t>2,46; 11,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,81</t>
+          <t>2,98; 13,39</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 7,67</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 7,31</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 6,37</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 5,25</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 9,8</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4,53; 13,96</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,48%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>3,69%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>2,16%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>4,1%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,45</t>
+          <t>0,57; 5,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 14,61</t>
+          <t>1,15; 15,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 9,98</t>
+          <t>0,59; 6,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,02</t>
+          <t>1,59; 9,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>6,28; 20,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,72</t>
+          <t>0,59; 5,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,61</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,2</t>
+          <t>1,01; 5,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,07</t>
+          <t>1,33; 7,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,02</t>
+          <t>1,55; 7,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 7,24</t>
+          <t>2,19; 8,89</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 4,44</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 9,1</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 3,19</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 5,39</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 7,12</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 13,83</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>3,01%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>4,58%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,59%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,74%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,61%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>3,71%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>6,19%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,58</t>
+          <t>2,84; 8,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 8,34</t>
+          <t>1,92; 7,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,49</t>
+          <t>1,1; 5,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 11,97</t>
+          <t>2,21; 7,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,99</t>
+          <t>4,48; 12,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,15</t>
+          <t>3,6; 10,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,29</t>
+          <t>1,23; 5,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 8,0</t>
+          <t>1,56; 5,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,71</t>
+          <t>2,89; 7,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,62</t>
+          <t>0,98; 4,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,38</t>
+          <t>2,25; 7,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,94</t>
+          <t>2,32; 8,1</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 6,11</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 5,48</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 5,54</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 5,28</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 8,77</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,67; 8,47</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>6,67%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,12%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>8,52%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>7,85%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6,26%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>7,23%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 13,85</t>
+          <t>3,44; 13,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,44</t>
+          <t>2,03; 6,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,32</t>
+          <t>2,61; 6,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 10,79</t>
+          <t>3,08; 9,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 9,45</t>
+          <t>3,79; 10,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,68</t>
+          <t>8,32; 17,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,87</t>
+          <t>3,67; 9,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,88</t>
+          <t>4,34; 9,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,36</t>
+          <t>6,01; 11,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,17</t>
+          <t>5,37; 11,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,85</t>
+          <t>4,9; 12,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,2</t>
+          <t>4,91; 12,04</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 10,13</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 7,31</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 8,39</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,86; 9,0</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 9,99</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>7,88; 13,72</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>9,74%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,74%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,71%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>11,15%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>9,97%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 14,49</t>
+          <t>2,48; 12,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 13,15</t>
+          <t>3,75; 13,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,86</t>
+          <t>2,2; 6,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 18,78</t>
+          <t>4,4; 14,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,73</t>
+          <t>8,4; 18,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 10,68</t>
+          <t>4,35; 11,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 9,0</t>
+          <t>3,07; 9,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 14,34</t>
+          <t>4,3; 10,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 9,44</t>
+          <t>3,31; 9,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,33</t>
+          <t>5,3; 14,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,61</t>
+          <t>6,07; 14,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,16; 14,74</t>
+          <t>7,88; 17,4</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 8,83</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 10,47</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 7,09</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 11,94</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 15,03</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 13,28</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>8,47%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>6,36%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>4,23%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>6,02%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>7,25%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,16</t>
+          <t>1,6; 7,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,94</t>
+          <t>1,93; 10,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,01</t>
+          <t>2,71; 9,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,29; 14,73</t>
+          <t>0,58; 7,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,39</t>
+          <t>3,88; 14,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,01</t>
+          <t>3,61; 13,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,18</t>
+          <t>4,82; 14,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 13,08</t>
+          <t>1,86; 6,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 8,79</t>
+          <t>3,9; 10,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,91</t>
+          <t>3,7; 11,43</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,08; 9,01</t>
+          <t>3,08; 12,74</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,43; 11,43</t>
+          <t>4,44; 12,98</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 10,52</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 6,32</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 8,78</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 8,19</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 11,24</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 11,41</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>7,53%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>6,36%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>4,73%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>4,49%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>4,39%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,42</t>
+          <t>3,61; 6,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,58</t>
+          <t>3,62; 6,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,43</t>
+          <t>2,54; 4,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 9,36</t>
+          <t>3,21; 5,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,97</t>
+          <t>6,02; 9,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,22</t>
+          <t>7,34; 11,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 6,49</t>
+          <t>3,82; 6,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,26</t>
+          <t>3,42; 5,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 5,73</t>
+          <t>4,34; 6,65</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,7; 5,55</t>
+          <t>4,1; 6,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 5,21</t>
+          <t>4,98; 8,1</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,88; 8,23</t>
+          <t>5,86; 9,22</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 5,98</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 5,6</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 5,29</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 5,66</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 8,16</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>7,16; 9,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea (tasa de respuesta: 99,82%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>26856</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27681</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19184</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17706</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2426</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4014</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17210</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19683</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16201</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5871</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2170</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2730</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>44066</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>47364</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>35385</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>23577</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6743</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11384; 50919</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12450; 52690</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5129; 46965</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4667; 42673</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>907; 5097</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1595; 7713</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5770; 37809</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8525; 39699</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6101; 34870</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21233</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>920; 4349</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1150; 5161</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24979; 74272</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>27615; 75964</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16216; 65238</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8946; 49832</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2515; 7785</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3667; 11314</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12436</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27426</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3061</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13436</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5907</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11016</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6132</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14124</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16699</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1744</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2239</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>23452</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>33558</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>17185</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>30134</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>3976</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8146</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3272; 32320</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6498; 86136</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14989</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3437; 38018</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>792; 4761</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3076; 10097</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3039; 28931</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23541</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5251; 30185</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6696; 35768</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>733; 3326</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1009; 4091</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10983; 48287</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10961; 97667</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>7662; 35421</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>13935; 58448</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2214; 6911</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5194; 13143</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36206</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27545</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18631</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>29241</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3950</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19792</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21598</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32961</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16584</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2513</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>55999</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>49143</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>51592</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>45824</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>7042</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>6463</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19462; 57965</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13060; 52052</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7467; 34707</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14971; 50602</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2688; 7196</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2186; 6604</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8772; 38070</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11197; 37004</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20598; 54167</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7067; 31447</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1211; 4164</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1273; 4443</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>35327; 85535</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>30072; 76464</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>34660; 77010</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>28934; 73794</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>4760; 9985</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>4240; 9790</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>42612</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>24903</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28199</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>36057</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7061</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42073</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43852</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>55704</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>52646</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4112</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>84684</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>68755</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>83904</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>88703</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>7981</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>11256</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>22207; 89047</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13131; 43440</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16536; 43854</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>20077; 58768</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2199; 6305</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4719; 9875</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24935; 65631</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>29216; 63654</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>39280; 76081</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35522; 74519</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2571; 6315</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2615; 6410</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>60730; 134152</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>49973; 96508</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>62866; 107984</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>63895; 118206</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>5668; 11032</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>8664; 15085</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>27599</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34817</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>20460</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>38475</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5615</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3476</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>29897</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>34414</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29216</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>45810</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4752</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5636</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>57497</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>69231</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>49676</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>84285</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>10367</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>9112</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12171; 60779</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18803; 65939</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10823; 34216</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21427; 69994</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3714; 8220</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1963; 5343</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15605; 48439</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21650; 52477</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17068; 48806</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>27124; 71919</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2960; 7218</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3651; 8060</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>36737; 88192</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>46819; 105210</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>33633; 71415</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>57171; 119248</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>7628; 13973</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>6461; 12139</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>20298</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>24033</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>28804</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>13600</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3114</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>59250</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26671</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>45697</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>46504</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4054</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5252</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>79548</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>50703</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>74501</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>60105</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>8366</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8512; 40710</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10192; 57958</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>14233; 51978</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3227; 41652</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1805; 6790</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1623; 5931</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>34289; 103310</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>12748; 45345</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>26808; 75223</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>26576; 82155</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1965; 8117</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2811; 8219</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>49030; 130884</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>30727; 76846</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>48425; 106534</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>34720; 104204</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>5033; 12390</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>5705; 12358</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>166404</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>118338</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>148515</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>22646</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>27522</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>179239</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>152350</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>193903</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>184113</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>19308</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>22564</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>345246</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>318754</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>312241</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>332628</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>41954</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>50085</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>123812; 218555</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>124575; 225349</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>87339; 156428</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>109947; 200811</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>18098; 28608</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>21937; 34751</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>137156; 239658</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>123126; 194201</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>156214; 239313</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>147215; 243683</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>15101; 24566</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>17709; 27877</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>283132; 420021</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>262840; 394542</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>263831; 372207</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>277249; 397249</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>35355; 49310</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>43060; 59272</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
